--- a/va_facility_data_2025-02-20/Piscataway VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Piscataway%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Piscataway VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Piscataway%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8922948765344005a07435bf3225c016"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc3ddf6b340764e7a8f0e3eeb12fb9c93"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0e2d6e7f873c4ed4890143590b18a888"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd4e9c64c97a84f7e961868ec9f3ad7cd"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfac1e83619ca44b59c80a757fb48cdf3"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R71e3f06b61814301ab22519bd80999c2"/>
   </x:sheets>
 </x:workbook>
 </file>
